--- a/experiment_results/20201206_AGGREGATION_AVERAGE_ADDITION_NORMALIZATION3/Email/4wise/0.95_.xlsx
+++ b/experiment_results/20201206_AGGREGATION_AVERAGE_ADDITION_NORMALIZATION3/Email/4wise/0.95_.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="op2" sheetId="1" r:id="rId1"/>
+    <sheet name="wong3" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -515,19 +515,19 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>139</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>247</v>
